--- a/output/kruskal_wallis_test/anova_Q21_Idade.xlsx
+++ b/output/kruskal_wallis_test/anova_Q21_Idade.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.58535424572457</v>
+        <v>6.10528048527616</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159491197464606</v>
+        <v>0.191422612911374</v>
       </c>
     </row>
   </sheetData>
